--- a/Python/Class Notes/Consolidated.xlsx
+++ b/Python/Class Notes/Consolidated.xlsx
@@ -1,14 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\prudhviraju.s\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="30" windowWidth="20115" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Numpy" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Pandas" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
@@ -16,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="78">
   <si>
     <t>Array</t>
   </si>
@@ -319,12 +324,15 @@
     <t>[('Alice', 25,  55. ) ('Bob', 45,  85.5) ('Cathy', 37,  68. )
  ('Doug', 19,  61.5)]</t>
   </si>
+  <si>
+    <t>http://www.datacarpentry.org/python-ecology-lesson/02-index-slice-subset/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -391,6 +399,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -437,7 +453,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -469,9 +485,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -503,6 +520,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -678,21 +696,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C53"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="66.85546875" customWidth="1"/>
     <col min="3" max="3" width="90.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -700,7 +718,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B2" t="s">
         <v>2</v>
       </c>
@@ -708,7 +726,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -716,7 +734,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>6</v>
       </c>
@@ -724,7 +742,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
@@ -732,7 +750,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30">
+    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>10</v>
       </c>
@@ -740,7 +758,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>11</v>
       </c>
@@ -748,7 +766,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:3">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>12</v>
       </c>
@@ -756,7 +774,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:3">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>14</v>
       </c>
@@ -764,7 +782,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:3">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>18</v>
       </c>
@@ -772,7 +790,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:3">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>20</v>
       </c>
@@ -780,7 +798,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:3">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>22</v>
       </c>
@@ -788,12 +806,12 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="30">
+    <row r="13" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B13" s="2" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="14" spans="1:3">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>24</v>
       </c>
@@ -801,7 +819,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" spans="1:3">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>25</v>
       </c>
@@ -809,7 +827,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:3">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>26</v>
       </c>
@@ -817,7 +835,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>30</v>
       </c>
@@ -825,7 +843,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="18" spans="1:3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>31</v>
       </c>
@@ -833,22 +851,22 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="45">
+    <row r="20" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="105">
+    <row r="21" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="B21" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="75">
+    <row r="22" spans="1:3" ht="60" x14ac:dyDescent="0.25">
       <c r="B22" s="2" t="s">
         <v>37</v>
       </c>
@@ -856,42 +874,42 @@
         <v>38</v>
       </c>
     </row>
-    <row r="24" spans="1:3">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="30">
+    <row r="25" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B25" s="2" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="26" spans="1:3">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="27" spans="1:3">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="90">
+    <row r="28" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B28" s="2" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="180">
+    <row r="29" spans="1:3" ht="120" x14ac:dyDescent="0.25">
       <c r="B29" s="2" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="30">
+    <row r="30" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B30" s="2" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="105">
+    <row r="31" spans="1:3" ht="90" x14ac:dyDescent="0.25">
       <c r="B31" s="2" t="s">
         <v>46</v>
       </c>
@@ -899,7 +917,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="32" spans="1:3" ht="75">
+    <row r="32" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B32" s="2" t="s">
         <v>48</v>
       </c>
@@ -907,7 +925,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="33" spans="1:3" ht="75">
+    <row r="33" spans="1:3" ht="75" x14ac:dyDescent="0.25">
       <c r="B33" s="2" t="s">
         <v>50</v>
       </c>
@@ -915,12 +933,12 @@
         <v>51</v>
       </c>
     </row>
-    <row r="34" spans="1:3" ht="30">
+    <row r="34" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="2" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>53</v>
       </c>
@@ -928,7 +946,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="36" spans="1:3" ht="165">
+    <row r="36" spans="1:3" ht="135" x14ac:dyDescent="0.25">
       <c r="B36" s="2" t="s">
         <v>56</v>
       </c>
@@ -936,82 +954,82 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="45">
+    <row r="37" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:3" ht="45">
+    <row r="38" spans="1:3" ht="30" x14ac:dyDescent="0.25">
       <c r="B38" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B39" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B44" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B45" s="5" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B46" s="5" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:3" ht="45">
+    <row r="47" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B47" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="45">
+    <row r="48" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B48" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="49" spans="1:3" ht="45">
+    <row r="49" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="50" spans="1:3" ht="45">
+    <row r="50" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B50" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="51" spans="1:3">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="45">
+    <row r="52" spans="1:3" ht="45" x14ac:dyDescent="0.25">
       <c r="B52" s="2" t="s">
         <v>73</v>
       </c>
@@ -1019,7 +1037,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="105">
+    <row r="53" spans="1:3" ht="105" x14ac:dyDescent="0.25">
       <c r="B53" s="2" t="s">
         <v>75</v>
       </c>
@@ -1034,24 +1052,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="72" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
